--- a/RQ3/result/GB/GB_9.xlsx
+++ b/RQ3/result/GB/GB_9.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E57EB4-E750-4331-93FA-A1F9D01C8605}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF3F54-02A9-4169-B7C7-26F8FD238413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -258,79 +246,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>return all constructors</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>HashMap is not synchronized, and performs better in non-threaded applications.</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/What-are-the-differences-between-a-HashMap-and-a-Hashtable-in-Java-Which-is-more-efficient-for-non-threaded-applications</t>
-  </si>
-  <si>
-    <t>API documentation does not say</t>
-  </si>
-  <si>
-    <t>The most common approach to register a driver is to use Java's Class.forName() method</t>
-  </si>
-  <si>
-    <t>https://www.tutorialspoint.com/jdbc/jdbc-db-connections.htm</t>
-  </si>
-  <si>
-    <t>I want to release windows</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.quora.com/Why-is-StringBuffer-more-efficient-than-Stringbuilder</t>
-  </si>
-  <si>
-    <t>since only one thread is allowed in StringBuffer it increases waiting time of threads and thus the performance is low. StringBuilder is comparatively high on performance.</t>
-  </si>
-  <si>
     <t>java.util.LinkedHashMap</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Iteration over the collection-views of a LinkedHashMap requires time proportional to the size of the map, regardless of its capacity. Iteration over a HashMap is likely to be more expensive, requiring time proportional to its capacity.</t>
-  </si>
-  <si>
-    <t>there are no relevant resources on the web</t>
-  </si>
-  <si>
-    <t>https://www.oipapio.com/question-2780702</t>
-  </si>
-  <si>
-    <t>1,3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baeldung.com/java-override-system-time</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> FileInputStream can read mp4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>The now() method of this class allows us to get the current instant from the system clock in the UTC timezone.</t>
-  </si>
-  <si>
-    <t>next() may block while waiting for input to scan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>HashMap vs ArrayList performance am I correct</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>return an array containing all of the elements in this list in proper sequence</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -346,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,15 +306,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -419,18 +330,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,18 +348,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -763,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:V1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,15 +681,10 @@
     <col min="7" max="8" width="50.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="47.25" style="3" customWidth="1"/>
-    <col min="13" max="13" width="60.375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="74.875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="182.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -796,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -819,23 +715,8 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -843,22 +724,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -866,17 +747,8 @@
       <c r="J2" s="1">
         <v>434</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -884,22 +756,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -907,14 +779,8 @@
       <c r="J3" s="3">
         <v>180</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -922,22 +788,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -945,17 +811,8 @@
       <c r="J4" s="1">
         <v>150</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -963,22 +820,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -986,17 +843,8 @@
       <c r="J5" s="3">
         <v>120</v>
       </c>
-      <c r="K5" s="3">
-        <v>330</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1004,22 +852,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -1027,17 +875,8 @@
       <c r="J6" s="1">
         <v>190</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1045,37 +884,31 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="6">
+        <v>50</v>
+      </c>
+      <c r="I7" s="5">
         <v>2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>216</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="O7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1083,22 +916,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -1106,17 +939,8 @@
       <c r="J8" s="1">
         <v>179</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1124,37 +948,31 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I9" s="6">
+        <v>50</v>
+      </c>
+      <c r="I9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <v>166</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1162,22 +980,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -1185,14 +1003,8 @@
       <c r="J10" s="1">
         <v>383</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1200,40 +1012,31 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="6">
+        <v>50</v>
+      </c>
+      <c r="I11" s="5">
         <v>1</v>
       </c>
       <c r="J11" s="3">
         <v>131</v>
       </c>
-      <c r="K11" s="3">
-        <v>244</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O11" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1241,22 +1044,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>52</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1264,17 +1067,8 @@
       <c r="J12" s="1">
         <v>243</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1282,46 +1076,33 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>132</v>
       </c>
-      <c r="L13" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="O13" s="6">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{8703FA80-8E6D-49B5-B125-8DDC08650B6F}"/>
-    <hyperlink ref="N6" r:id="rId2" xr:uid="{1E05301A-5DDF-42D3-B014-0D20255337C4}"/>
-    <hyperlink ref="N8" r:id="rId3" xr:uid="{DC1538B2-7139-452B-8E8F-75E4220CB05E}"/>
-    <hyperlink ref="N12" r:id="rId4" xr:uid="{BC5F6229-E87A-4B29-823E-8C0DC48696E2}"/>
-    <hyperlink ref="N2" r:id="rId5" xr:uid="{9A0C8017-8616-4764-91AC-F283688697C5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GB/GB_9.xlsx
+++ b/RQ3/result/GB/GB_9.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CF3F54-02A9-4169-B7C7-26F8FD238413}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC01ACC-D315-441A-AB6C-2F779F5157CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11145" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -259,6 +255,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -667,7 +667,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:V1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -692,7 +692,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -713,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -724,22 +724,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1">
         <v>1</v>
@@ -756,22 +756,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -788,22 +788,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -820,22 +820,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3">
         <v>3</v>
@@ -852,22 +852,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
@@ -884,22 +884,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="5">
         <v>2</v>
@@ -916,22 +916,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>2</v>
@@ -948,22 +948,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -980,22 +980,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="G10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
@@ -1012,22 +1012,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1044,22 +1044,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="G12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1076,22 +1076,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
